--- a/src/data/case14se.xlsx
+++ b/src/data/case14se.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\16. GitHub\JuliaGrid\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="pmuVoltage" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="legacyInjection" sheetId="5" r:id="rId5"/>
     <sheet name="legacyVoltage" sheetId="6" r:id="rId6"/>
     <sheet name="bus" sheetId="7" r:id="rId7"/>
-    <sheet name="generator" sheetId="8" r:id="rId8"/>
-    <sheet name="branch" sheetId="9" r:id="rId9"/>
-    <sheet name="basePower" sheetId="10" r:id="rId10"/>
-    <sheet name="info" sheetId="11" r:id="rId11"/>
+    <sheet name="branch" sheetId="9" r:id="rId8"/>
+    <sheet name="generator" sheetId="8" r:id="rId9"/>
+    <sheet name="generatorcost" sheetId="12" r:id="rId10"/>
+    <sheet name="basePower" sheetId="10" r:id="rId11"/>
+    <sheet name="info" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="124">
   <si>
     <t>Bus</t>
   </si>
@@ -379,6 +380,33 @@
   </si>
   <si>
     <t>0.0001 maximum</t>
+  </si>
+  <si>
+    <t>Cost Model</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Piecewise(1), Polynomial(2)</t>
+  </si>
+  <si>
+    <t>Startup [currency]</t>
+  </si>
+  <si>
+    <t>Shutdown [currency]</t>
+  </si>
+  <si>
+    <t>Number of Data Points</t>
+  </si>
+  <si>
+    <t>Coefficient c2</t>
+  </si>
+  <si>
+    <t>Coefficient c1</t>
+  </si>
+  <si>
+    <t>Coefficient c0</t>
   </si>
 </sst>
 </file>
@@ -1217,9 +1245,193 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="7" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4.3029259899999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1246,11 +1458,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7067,6 +7279,1002 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1.9380000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.917E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.28E-2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>-360</v>
+      </c>
+      <c r="N3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5.4030000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.22303999999999999</v>
+      </c>
+      <c r="F4">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>-360</v>
+      </c>
+      <c r="N4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4.6989999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="F5">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>-360</v>
+      </c>
+      <c r="N5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5.8110000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.17632</v>
+      </c>
+      <c r="F6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>-360</v>
+      </c>
+      <c r="N6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5.6950000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.17388000000000001</v>
+      </c>
+      <c r="F7">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>-360</v>
+      </c>
+      <c r="N7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>6.701E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.17102999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>-360</v>
+      </c>
+      <c r="N8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.2110000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>-360</v>
+      </c>
+      <c r="N9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.20912</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>-360</v>
+      </c>
+      <c r="N10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.55618000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>-360</v>
+      </c>
+      <c r="N11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.25202000000000002</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>-360</v>
+      </c>
+      <c r="N12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>9.4979999999999995E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-360</v>
+      </c>
+      <c r="N13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.12291000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.25580999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>-360</v>
+      </c>
+      <c r="N14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>6.615E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.13027</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>-360</v>
+      </c>
+      <c r="N15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.17615</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>-360</v>
+      </c>
+      <c r="N16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.11001</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>-360</v>
+      </c>
+      <c r="N17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>3.1809999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>-360</v>
+      </c>
+      <c r="N18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>0.12711</v>
+      </c>
+      <c r="E19">
+        <v>0.27038000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>-360</v>
+      </c>
+      <c r="N19">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>8.2049999999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.19206999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>-360</v>
+      </c>
+      <c r="N20">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0.22092000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.19988</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>-360</v>
+      </c>
+      <c r="N21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>0.17093</v>
+      </c>
+      <c r="E22">
+        <v>0.34802</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>-360</v>
+      </c>
+      <c r="N22">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0"/>
@@ -7547,1000 +8755,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1.9380000000000001E-2</v>
-      </c>
-      <c r="E3">
-        <v>5.917E-2</v>
-      </c>
-      <c r="F3">
-        <v>5.28E-2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>-360</v>
-      </c>
-      <c r="N3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5.4030000000000002E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.22303999999999999</v>
-      </c>
-      <c r="F4">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>-360</v>
-      </c>
-      <c r="N4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4.6989999999999997E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.19797000000000001</v>
-      </c>
-      <c r="F5">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>-360</v>
-      </c>
-      <c r="N5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>5.8110000000000002E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.17632</v>
-      </c>
-      <c r="F6">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>-360</v>
-      </c>
-      <c r="N6">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5.6950000000000001E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.17388000000000001</v>
-      </c>
-      <c r="F7">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>-360</v>
-      </c>
-      <c r="N7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>6.701E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.17102999999999999</v>
-      </c>
-      <c r="F8">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>-360</v>
-      </c>
-      <c r="N8">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1.3350000000000001E-2</v>
-      </c>
-      <c r="E9">
-        <v>4.2110000000000002E-2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>-360</v>
-      </c>
-      <c r="N9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.20912</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>-360</v>
-      </c>
-      <c r="N10">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.55618000000000001</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>-360</v>
-      </c>
-      <c r="N11">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.25202000000000002</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>-360</v>
-      </c>
-      <c r="N12">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>9.4979999999999995E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.19889999999999999</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>-360</v>
-      </c>
-      <c r="N13">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>0.12291000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.25580999999999998</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>-360</v>
-      </c>
-      <c r="N14">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>6.615E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.13027</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>-360</v>
-      </c>
-      <c r="N15">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.17615</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>-360</v>
-      </c>
-      <c r="N16">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0.11001</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>-360</v>
-      </c>
-      <c r="N17">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>3.1809999999999998E-2</v>
-      </c>
-      <c r="E18">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>-360</v>
-      </c>
-      <c r="N18">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>0.12711</v>
-      </c>
-      <c r="E19">
-        <v>0.27038000000000001</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>-360</v>
-      </c>
-      <c r="N19">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>8.2049999999999998E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.19206999999999999</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>-360</v>
-      </c>
-      <c r="N20">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>0.22092000000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.19988</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>-360</v>
-      </c>
-      <c r="N21">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>0.17093</v>
-      </c>
-      <c r="E22">
-        <v>0.34802</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>-360</v>
-      </c>
-      <c r="N22">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>